--- a/家具家电清单.xlsx
+++ b/家具家电清单.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DianShi/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DianShi/Documents/wk/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-3580" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="12800" yWindow="1460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
   <si>
     <t>床垫都买雅兰的， 1.5m的是 一个9CM 无弹簧的。1.8m的 是 深睡护脊。18日下单，备注延后发货，7月底。</t>
   </si>
@@ -176,15 +177,9 @@
     <t>大理石</t>
   </si>
   <si>
-    <t>已付500押金</t>
-  </si>
-  <si>
     <t>已付4200押金</t>
   </si>
   <si>
-    <t>窗户安装后安装</t>
-  </si>
-  <si>
     <t>餐椅</t>
   </si>
   <si>
@@ -207,6 +202,54 @@
   </si>
   <si>
     <t>已付12500押金</t>
+  </si>
+  <si>
+    <t>关于iOS系统推送</t>
+  </si>
+  <si>
+    <t>App在前台</t>
+  </si>
+  <si>
+    <t>App在后台</t>
+  </si>
+  <si>
+    <t>文字弹窗</t>
+  </si>
+  <si>
+    <t>状态栏通知</t>
+  </si>
+  <si>
+    <t>状态栏推送（是）</t>
+  </si>
+  <si>
+    <t>首页推送（是）</t>
+  </si>
+  <si>
+    <t>状态栏推送（否）</t>
+  </si>
+  <si>
+    <t>首页推送（否）</t>
+  </si>
+  <si>
+    <t>无文字弹窗</t>
+  </si>
+  <si>
+    <t>无状态栏通知</t>
+  </si>
+  <si>
+    <t>首页弹窗</t>
+  </si>
+  <si>
+    <t>无首页弹窗</t>
+  </si>
+  <si>
+    <t>进入App后首页弹窗</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>首页每次出现都请求首页推送接口，以保证首页推送的及时性</t>
   </si>
 </sst>
 </file>
@@ -242,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -252,6 +295,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,7 +579,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -580,10 +626,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -604,7 +650,7 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -625,7 +671,7 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -646,7 +692,7 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -664,150 +710,144 @@
         <v>7080</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6">
+        <v>1500</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>8400</v>
       </c>
-      <c r="J7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>2079</v>
-      </c>
-      <c r="K8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" s="1"/>
       <c r="I9">
-        <v>2279</v>
+        <v>17500</v>
+      </c>
+      <c r="J9" t="s">
+        <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="K10" t="s">
         <v>20</v>
       </c>
       <c r="L10" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11">
-        <v>1500</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I11">
-        <v>1500</v>
-      </c>
-      <c r="J11" t="s">
-        <v>50</v>
+        <v>2279</v>
+      </c>
+      <c r="K11" t="s">
+        <v>20</v>
       </c>
       <c r="L11" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="1"/>
+        <v>29</v>
+      </c>
       <c r="I12">
-        <v>17500</v>
-      </c>
-      <c r="J12" t="s">
-        <v>60</v>
+        <v>2078</v>
       </c>
       <c r="K12" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="L12" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
@@ -905,7 +945,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F21">
-        <f>SUM(F7:F20)</f>
+        <f>SUM(F8:F20)</f>
         <v>14000</v>
       </c>
       <c r="I21">
@@ -915,9 +955,111 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A7:A12"/>
     <mergeCell ref="A14:A20"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A2:A6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="4"/>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/家具家电清单.xlsx
+++ b/家具家电清单.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DianShi/Documents/wk/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DianShi/Documents/wk/GitHub/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
   <si>
     <t>床垫都买雅兰的， 1.5m的是 一个9CM 无弹簧的。1.8m的 是 深睡护脊。18日下单，备注延后发货，7月底。</t>
   </si>
@@ -42,12 +42,6 @@
     <t xml:space="preserve">防盗窗 </t>
   </si>
   <si>
-    <t>7月15日前</t>
-  </si>
-  <si>
-    <t>7月15日左右</t>
-  </si>
-  <si>
     <t>注意事项</t>
   </si>
   <si>
@@ -81,18 +75,9 @@
     <t>红橡木</t>
   </si>
   <si>
-    <t>18号下单</t>
-  </si>
-  <si>
     <t>下单/确定时间</t>
   </si>
   <si>
-    <t>7月底</t>
-  </si>
-  <si>
-    <t>备注发货时间延迟 7月底</t>
-  </si>
-  <si>
     <t>规格</t>
   </si>
   <si>
@@ -108,9 +93,6 @@
     <t>原始元素</t>
   </si>
   <si>
-    <t>修改收货地址</t>
-  </si>
-  <si>
     <t>床</t>
   </si>
   <si>
@@ -132,9 +114,6 @@
     <t>床垫</t>
   </si>
   <si>
-    <t>备注延后发货7月底</t>
-  </si>
-  <si>
     <t xml:space="preserve">洗衣机  </t>
   </si>
   <si>
@@ -150,9 +129,6 @@
     <t xml:space="preserve">冰箱 </t>
   </si>
   <si>
-    <t>250升左右</t>
-  </si>
-  <si>
     <t>海尔/容声</t>
   </si>
   <si>
@@ -168,9 +144,6 @@
     <t>空调</t>
   </si>
   <si>
-    <t>需先预付定金，备注延后发货7月底</t>
-  </si>
-  <si>
     <t>水池</t>
   </si>
   <si>
@@ -250,6 +223,12 @@
   </si>
   <si>
     <t>首页每次出现都请求首页推送接口，以保证首页推送的及时性</t>
+  </si>
+  <si>
+    <t>剩余尾款</t>
+  </si>
+  <si>
+    <t>250~340升左右</t>
   </si>
 </sst>
 </file>
@@ -291,10 +270,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -576,66 +555,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>55</v>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G2">
         <v>470</v>
@@ -647,16 +630,16 @@
         <v>1878.42</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G3">
         <v>1800</v>
@@ -668,16 +651,16 @@
         <v>1772.47</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G4">
         <v>2180</v>
@@ -689,16 +672,16 @@
         <v>2146.66</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G5">
         <v>7190</v>
@@ -710,13 +693,13 @@
         <v>7080</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G6">
         <v>1500</v>
@@ -728,61 +711,61 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>56</v>
+    <row r="8" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I8">
         <v>8400</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="K8">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1"/>
       <c r="I9">
         <v>17500</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="K9">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -790,76 +773,58 @@
       <c r="I10">
         <v>2079</v>
       </c>
-      <c r="K10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I11">
         <v>2279</v>
       </c>
-      <c r="K11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I12">
         <v>2078</v>
       </c>
-      <c r="K12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>57</v>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G14">
         <v>5250</v>
@@ -870,75 +835,66 @@
       <c r="I14">
         <v>5250</v>
       </c>
-      <c r="J14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F16">
         <v>7000</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
+      <c r="A17" s="2"/>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F17">
         <v>4000</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
+      <c r="A18" s="2"/>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F18">
         <v>3000</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
+      <c r="A19" s="2"/>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
+      <c r="A20" s="2"/>
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -981,80 +937,80 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="4"/>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/家具家电清单.xlsx
+++ b/家具家电清单.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
   <si>
     <t>床垫都买雅兰的， 1.5m的是 一个9CM 无弹簧的。1.8m的 是 深睡护脊。18日下单，备注延后发货，7月底。</t>
   </si>
@@ -229,6 +229,18 @@
   </si>
   <si>
     <t>250~340升左右</t>
+  </si>
+  <si>
+    <t>车</t>
+  </si>
+  <si>
+    <t>日产</t>
+  </si>
+  <si>
+    <t>逍客</t>
+  </si>
+  <si>
+    <t>白</t>
   </si>
 </sst>
 </file>
@@ -555,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -574,10 +586,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
@@ -614,7 +626,7 @@
       <c r="B2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
         <v>21</v>
       </c>
       <c r="E2" t="s">
@@ -635,7 +647,7 @@
       <c r="B3" t="s">
         <v>43</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
         <v>21</v>
       </c>
       <c r="E3" t="s">
@@ -656,7 +668,7 @@
       <c r="B4" t="s">
         <v>44</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s">
         <v>21</v>
       </c>
       <c r="E4" t="s">
@@ -677,7 +689,7 @@
       <c r="B5" t="s">
         <v>45</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="s">
@@ -718,7 +730,7 @@
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
@@ -759,10 +771,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
         <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
       </c>
       <c r="E10" t="s">
         <v>20</v>
@@ -780,10 +792,10 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
       </c>
       <c r="E11" t="s">
         <v>24</v>
@@ -798,10 +810,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
       </c>
       <c r="E12" t="s">
         <v>23</v>
@@ -818,10 +830,10 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
         <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
@@ -845,10 +857,10 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
         <v>32</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
       </c>
       <c r="E16" t="s">
         <v>36</v>
@@ -863,10 +875,10 @@
         <v>29</v>
       </c>
       <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
         <v>37</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
       </c>
       <c r="F17">
         <v>4000</v>
@@ -878,10 +890,10 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
         <v>67</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
       </c>
       <c r="F18">
         <v>3000</v>
@@ -907,6 +919,23 @@
       <c r="I21">
         <f>SUM(I2:I20)</f>
         <v>51963.55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23">
+        <v>180000</v>
       </c>
     </row>
   </sheetData>

--- a/家具家电清单.xlsx
+++ b/家具家电清单.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DianShi/Documents/wk/GitHub/files/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22905"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="1460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="98">
   <si>
     <t>床垫都买雅兰的， 1.5m的是 一个9CM 无弹簧的。1.8m的 是 深睡护脊。18日下单，备注延后发货，7月底。</t>
   </si>
@@ -129,9 +124,6 @@
     <t xml:space="preserve">冰箱 </t>
   </si>
   <si>
-    <t>海尔/容声</t>
-  </si>
-  <si>
     <t>sony</t>
   </si>
   <si>
@@ -150,9 +142,6 @@
     <t>大理石</t>
   </si>
   <si>
-    <t>已付4200押金</t>
-  </si>
-  <si>
     <t>餐椅</t>
   </si>
   <si>
@@ -168,15 +157,9 @@
     <t>已完成</t>
   </si>
   <si>
-    <t>已购买待安装</t>
-  </si>
-  <si>
     <t>未购买</t>
   </si>
   <si>
-    <t>已付12500押金</t>
-  </si>
-  <si>
     <t>关于iOS系统推送</t>
   </si>
   <si>
@@ -228,9 +211,6 @@
     <t>剩余尾款</t>
   </si>
   <si>
-    <t>250~340升左右</t>
-  </si>
-  <si>
     <t>车</t>
   </si>
   <si>
@@ -241,27 +221,195 @@
   </si>
   <si>
     <t>白</t>
+  </si>
+  <si>
+    <t>已付清</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付清</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意是否有漏水现象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长螺丝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遮光板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房油烟挡板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐桌玻璃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶几玻璃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣帽挂钩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃贴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身弹力绳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间 95*60*65 （高*深*宽）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗帘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>125*32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>38*88</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>79*43</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4*80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凡木玻璃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桌布</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桌旗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飘窗垫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防震块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铝合金门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>镂空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>容声</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>320L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCD-320WD12MYP</t>
+  </si>
+  <si>
+    <t>空间 收货联系客服，返100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活性炭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>落地扇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>床架是不是新款</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -273,26 +421,115 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="43">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -347,7 +584,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -382,7 +619,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -559,7 +796,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -567,21 +804,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -610,7 +849,7 @@
         <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L1" t="s">
         <v>3</v>
@@ -619,12 +858,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>46</v>
+    <row r="2" spans="1:13">
+      <c r="A2" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -642,10 +881,10 @@
         <v>1878.42</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:13">
+      <c r="A3" s="5"/>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -663,10 +902,10 @@
         <v>1772.47</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
+    <row r="4" spans="1:13">
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -684,10 +923,10 @@
         <v>2146.66</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
+    <row r="5" spans="1:13">
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -705,13 +944,13 @@
         <v>7080</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
+    <row r="6" spans="1:13">
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
         <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
       </c>
       <c r="G6">
         <v>1500</v>
@@ -723,10 +962,24 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>47</v>
-      </c>
+    <row r="7" spans="1:13">
+      <c r="A7" s="5"/>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="I7">
+        <v>17500</v>
+      </c>
+      <c r="K7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16" customHeight="1">
+      <c r="A8" s="5"/>
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -739,34 +992,33 @@
       <c r="I8">
         <v>8400</v>
       </c>
-      <c r="J8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
+      <c r="K8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="5"/>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1"/>
+        <v>23</v>
+      </c>
       <c r="I9">
-        <v>17500</v>
-      </c>
-      <c r="J9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="5"/>
       <c r="B10" t="s">
         <v>22</v>
       </c>
@@ -786,165 +1038,348 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
+    <row r="11" spans="1:13">
       <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="I11">
-        <v>2279</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2350</v>
+      </c>
+      <c r="K11">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="3"/>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I12">
-        <v>2078</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2"/>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13">
+        <v>2899</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>2899</v>
+      </c>
+      <c r="M13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G14">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7">
         <v>5250</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="7">
         <v>1</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="7">
         <v>5250</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="7"/>
+      <c r="B15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7">
+        <v>89</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
+        <v>89</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="7"/>
+      <c r="B16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7">
+        <v>190</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7">
+        <v>190</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="B19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="2"/>
       <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="2"/>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21">
+        <v>4000</v>
+      </c>
+      <c r="M21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="2"/>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="2"/>
+      <c r="B23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F21">
-        <f>SUM(F8:F20)</f>
-        <v>14000</v>
-      </c>
-      <c r="I21">
-        <f>SUM(I2:I20)</f>
-        <v>51963.55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" t="s">
+    <row r="24" spans="1:13">
+      <c r="F24">
+        <f>SUM(F8:F23)</f>
+        <v>13300</v>
+      </c>
+      <c r="I24">
+        <f>SUM(I2:I23)</f>
+        <v>57491.55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="D34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" t="s">
         <v>70</v>
       </c>
-      <c r="E23" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23">
-        <v>180000</v>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A2:A6"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A10"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -956,96 +1391,102 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:5">
+      <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="6"/>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
         <v>50</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="9" spans="2:5">
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
         <v>51</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="39">
+      <c r="B12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="4"/>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>58</v>
       </c>
-      <c r="C13" t="s">
-        <v>62</v>
-      </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:B3"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>